--- a/Table.xlsx
+++ b/Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\github\CardioCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X00121692\Desktop\Github\CardioCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77420F99-CB47-44A2-9948-19B8DEF91FA1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>Attribute Type</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Skewness</t>
   </si>
   <si>
-    <t>Correlation</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -132,19 +130,40 @@
   </si>
   <si>
     <t>Healthy</t>
+  </si>
+  <si>
+    <t>Anderson Darling</t>
+  </si>
+  <si>
+    <t>Shapiro Wilks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Not-Normal</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,8 +186,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -184,6 +206,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B57EC1EF-2ACB-4A3C-BF5D-59E3F4324368}" name="Table1" displayName="Table1" ref="A1:M16" totalsRowShown="0">
+  <autoFilter ref="A1:M16" xr:uid="{D03FF100-2515-4868-AFA4-D1FE7927C54E}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{8104A15A-6D06-4EE2-9059-DC1AC5E378C8}" name="Variables"/>
+    <tableColumn id="2" xr3:uid="{7CEAD20C-D3A4-4EAA-96F1-A2937131A5B1}" name="Attribute Type"/>
+    <tableColumn id="3" xr3:uid="{B7966FF7-B6BC-4BB3-AD50-DA736229C70A}" name="Missing Values "/>
+    <tableColumn id="4" xr3:uid="{4FA73533-EDF5-4ABA-85B0-A4AA9CD821C8}" name="Max"/>
+    <tableColumn id="5" xr3:uid="{21A7283D-4F3C-4E41-8533-3DB86A8B60F1}" name="Min"/>
+    <tableColumn id="6" xr3:uid="{CEDFD2E5-1E37-4ED4-8434-5BE2C67E24C3}" name=" mean"/>
+    <tableColumn id="7" xr3:uid="{6117BC95-AD92-4545-8135-3FC0EB15D909}" name="mode"/>
+    <tableColumn id="8" xr3:uid="{75BB7C34-706E-49E9-BD34-9DD0E315EF7F}" name="median"/>
+    <tableColumn id="9" xr3:uid="{DA81D26C-96E3-4B93-9985-0AE799BE97BF}" name="Stanard Deviation"/>
+    <tableColumn id="10" xr3:uid="{265ACF7A-ADEC-4B5C-AFAD-814AF7F68FE9}" name="Distribution"/>
+    <tableColumn id="11" xr3:uid="{E2FAD016-CA86-459D-AB03-F3A469CE1096}" name="Skewness"/>
+    <tableColumn id="12" xr3:uid="{52AAC861-8A4F-414C-85A2-8CEBAEE94D50}" name="Anderson Darling"/>
+    <tableColumn id="13" xr3:uid="{47E6D845-FBA8-4846-BB9B-AD34456C5FF8}" name="Shapiro Wilks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,32 +492,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -500,15 +549,18 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -531,16 +583,25 @@
       <c r="I2">
         <v>9.7759420000000006</v>
       </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
       <c r="K2">
         <v>-0.16199620000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1.1069999999999999E-3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.9140000000000005E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -563,16 +624,25 @@
       <c r="I3">
         <v>51.89246</v>
       </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
       <c r="K3">
         <v>1.37944</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>8.4510000000000002E-5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>4.5479999999999996E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -595,16 +665,25 @@
       <c r="I4">
         <v>10.718159999999999</v>
       </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
       <c r="K4">
         <v>0.76915049999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1.2560000000000001E-7</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3.1039999999999997E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -627,16 +706,25 @@
       <c r="I5">
         <v>22.768049999999999</v>
       </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
       <c r="K5">
         <v>-0.54177629999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>6.1789999999999996E-6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5.6079999999999998E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -659,16 +747,25 @@
       <c r="I6">
         <v>1.166037</v>
       </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
       <c r="K6">
         <v>1.2356670000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>2.2E-16</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -691,326 +788,411 @@
       <c r="I7">
         <v>17.490020000000001</v>
       </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
       <c r="K7">
         <v>0.72549580000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>9.0299999999999997E-7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>8.4310000000000003E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>